--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value759.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value759.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9733358810844566</v>
+        <v>1.121802926063538</v>
       </c>
       <c r="B1">
-        <v>2.462419268402578</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>4.711881062136085</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.286443199084279</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>1.237995658745113</v>
+        <v>1.035662651062012</v>
       </c>
     </row>
   </sheetData>
